--- a/data/trans_orig/P36BPD13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EB3919-7F77-4D8D-AE34-BFA6A49F4772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A6CC1A-7802-436D-8432-64C9EE77A44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C31BD1B-06BB-4BE7-AA3C-5DA5A9408F7D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0E388B7-8883-4384-B4D0-3385B4B5B6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>87,46%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>12,54%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>81,64%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,49 @@
     <t>85,47%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>85,77%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>88,27%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>11,73%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +245,55 @@
     <t>86,22%</t>
   </si>
   <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>80,54%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +359,97 @@
     <t>85,5%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>87,66%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>86,06%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>13,94%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD4CA20-72F5-4C8A-B48A-D3C65ECE2FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48C769A-1F2F-493A-8D7C-C2CB1770A36F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1334,10 +1316,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1201</v>
@@ -1346,13 +1328,13 @@
         <v>971704</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,13 +1349,13 @@
         <v>80476</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>115</v>
@@ -1382,13 +1364,13 @@
         <v>82649</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -1397,13 +1379,13 @@
         <v>163125</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,7 +1441,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1471,13 +1453,13 @@
         <v>620191</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>996</v>
@@ -1486,13 +1468,13 @@
         <v>647377</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1570</v>
@@ -1501,13 +1483,13 @@
         <v>1267568</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1504,13 @@
         <v>99106</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -1537,13 +1519,13 @@
         <v>92322</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -1552,13 +1534,13 @@
         <v>191428</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1608,13 @@
         <v>479366</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>882</v>
@@ -1641,13 +1623,13 @@
         <v>522490</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1425</v>
@@ -1656,13 +1638,13 @@
         <v>1001857</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1659,13 @@
         <v>115858</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>117</v>
@@ -1692,13 +1674,13 @@
         <v>73149</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>232</v>
@@ -1707,13 +1689,13 @@
         <v>189006</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1763,13 @@
         <v>590893</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>1535</v>
@@ -1796,13 +1778,13 @@
         <v>925711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2424</v>
@@ -1811,13 +1793,13 @@
         <v>1516603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1814,13 @@
         <v>100211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -1847,13 +1829,13 @@
         <v>95278</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -1862,13 +1844,13 @@
         <v>195490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1918,13 @@
         <v>2843073</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>4728</v>
@@ -1951,13 +1933,13 @@
         <v>3335843</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>7613</v>
@@ -1966,13 +1948,13 @@
         <v>6178915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1969,13 @@
         <v>521449</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>598</v>
@@ -2002,13 +1984,13 @@
         <v>442981</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1066</v>
@@ -2017,13 +1999,13 @@
         <v>964431</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A6CC1A-7802-436D-8432-64C9EE77A44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3E587E-C4B0-4AEB-A6AD-DE0BD5B1557A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0E388B7-8883-4384-B4D0-3385B4B5B6B9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F3F813EA-7AB6-4402-8486-CBAB19945CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="156">
   <si>
     <t>Población según si consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -65,391 +65,442 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>65-74</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,8 +915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48C769A-1F2F-493A-8D7C-C2CB1770A36F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103AE6FF-B936-4FD1-8ACF-6F243C89F207}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -985,7 +1036,7 @@
         <v>152</v>
       </c>
       <c r="D4" s="7">
-        <v>330330</v>
+        <v>350624</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1000,7 +1051,7 @@
         <v>179</v>
       </c>
       <c r="I4" s="7">
-        <v>300722</v>
+        <v>266304</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1015,7 +1066,7 @@
         <v>331</v>
       </c>
       <c r="N4" s="7">
-        <v>631053</v>
+        <v>616928</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1036,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>47349</v>
+        <v>49363</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1051,7 +1102,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>49710</v>
+        <v>42812</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1066,7 +1117,7 @@
         <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>97058</v>
+        <v>92175</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1087,7 +1138,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1102,7 +1153,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="7">
-        <v>350432</v>
+        <v>309116</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1117,7 +1168,7 @@
         <v>377</v>
       </c>
       <c r="N6" s="7">
-        <v>728111</v>
+        <v>709103</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1140,7 +1191,7 @@
         <v>253</v>
       </c>
       <c r="D7" s="7">
-        <v>348723</v>
+        <v>342131</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1155,7 +1206,7 @@
         <v>409</v>
       </c>
       <c r="I7" s="7">
-        <v>441407</v>
+        <v>459897</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1170,7 +1221,7 @@
         <v>662</v>
       </c>
       <c r="N7" s="7">
-        <v>790130</v>
+        <v>802028</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1191,7 +1242,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>78449</v>
+        <v>79885</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1206,7 +1257,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>49875</v>
+        <v>44933</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1221,7 +1272,7 @@
         <v>94</v>
       </c>
       <c r="N8" s="7">
-        <v>128324</v>
+        <v>124818</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1242,7 +1293,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>427172</v>
+        <v>422016</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1257,7 +1308,7 @@
         <v>455</v>
       </c>
       <c r="I9" s="7">
-        <v>491282</v>
+        <v>504830</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1323,7 @@
         <v>756</v>
       </c>
       <c r="N9" s="7">
-        <v>918454</v>
+        <v>926846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1295,7 +1346,7 @@
         <v>474</v>
       </c>
       <c r="D10" s="7">
-        <v>473570</v>
+        <v>455530</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1310,31 +1361,31 @@
         <v>727</v>
       </c>
       <c r="I10" s="7">
-        <v>498134</v>
+        <v>463729</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1201</v>
       </c>
       <c r="N10" s="7">
-        <v>971704</v>
+        <v>919259</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,46 +1397,46 @@
         <v>69</v>
       </c>
       <c r="D11" s="7">
-        <v>80476</v>
+        <v>77838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>115</v>
       </c>
       <c r="I11" s="7">
-        <v>82649</v>
+        <v>76262</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
       </c>
       <c r="N11" s="7">
-        <v>163125</v>
+        <v>154100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,7 +1448,7 @@
         <v>543</v>
       </c>
       <c r="D12" s="7">
-        <v>554046</v>
+        <v>533368</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1412,7 +1463,7 @@
         <v>842</v>
       </c>
       <c r="I12" s="7">
-        <v>580783</v>
+        <v>539991</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1478,7 @@
         <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>1134829</v>
+        <v>1073359</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1441,7 +1492,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1450,46 +1501,46 @@
         <v>574</v>
       </c>
       <c r="D13" s="7">
-        <v>620191</v>
+        <v>788834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>996</v>
       </c>
       <c r="I13" s="7">
-        <v>647377</v>
+        <v>621135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1570</v>
       </c>
       <c r="N13" s="7">
-        <v>1267568</v>
+        <v>1409969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,46 +1552,46 @@
         <v>87</v>
       </c>
       <c r="D14" s="7">
-        <v>99106</v>
+        <v>94370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
       </c>
       <c r="I14" s="7">
-        <v>92322</v>
+        <v>84698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
       </c>
       <c r="N14" s="7">
-        <v>191428</v>
+        <v>179068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,7 +1603,7 @@
         <v>661</v>
       </c>
       <c r="D15" s="7">
-        <v>719297</v>
+        <v>883204</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1618,7 @@
         <v>1128</v>
       </c>
       <c r="I15" s="7">
-        <v>739699</v>
+        <v>705833</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1633,7 @@
         <v>1789</v>
       </c>
       <c r="N15" s="7">
-        <v>1458996</v>
+        <v>1589037</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1596,7 +1647,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1605,46 +1656,46 @@
         <v>543</v>
       </c>
       <c r="D16" s="7">
-        <v>479366</v>
+        <v>448235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>882</v>
       </c>
       <c r="I16" s="7">
-        <v>522490</v>
+        <v>479638</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1425</v>
       </c>
       <c r="N16" s="7">
-        <v>1001857</v>
+        <v>927874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,46 +1707,46 @@
         <v>115</v>
       </c>
       <c r="D17" s="7">
-        <v>115858</v>
+        <v>108427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>117</v>
       </c>
       <c r="I17" s="7">
-        <v>73149</v>
+        <v>66944</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>232</v>
       </c>
       <c r="N17" s="7">
-        <v>189006</v>
+        <v>175371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1758,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>595224</v>
+        <v>556662</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1773,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>595639</v>
+        <v>546582</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1788,7 @@
         <v>1657</v>
       </c>
       <c r="N18" s="7">
-        <v>1190863</v>
+        <v>1103245</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1751,55 +1802,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>889</v>
+        <v>477</v>
       </c>
       <c r="D19" s="7">
-        <v>590893</v>
+        <v>302116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>1535</v>
+        <v>748</v>
       </c>
       <c r="I19" s="7">
-        <v>925711</v>
+        <v>567102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>2424</v>
+        <v>1225</v>
       </c>
       <c r="N19" s="7">
-        <v>1516603</v>
+        <v>869218</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,49 +1859,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7">
-        <v>100211</v>
+        <v>61276</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="I20" s="7">
-        <v>95278</v>
+        <v>39407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="N20" s="7">
-        <v>195490</v>
+        <v>100683</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1018</v>
+        <v>563</v>
       </c>
       <c r="D21" s="7">
-        <v>691104</v>
+        <v>363392</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1874,10 +1925,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1697</v>
+        <v>823</v>
       </c>
       <c r="I21" s="7">
-        <v>1020989</v>
+        <v>606509</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2715</v>
+        <v>1386</v>
       </c>
       <c r="N21" s="7">
-        <v>1712093</v>
+        <v>969901</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1957,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2885</v>
+        <v>412</v>
       </c>
       <c r="D22" s="7">
-        <v>2843073</v>
+        <v>249135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>4728</v>
+        <v>787</v>
       </c>
       <c r="I22" s="7">
-        <v>3335843</v>
+        <v>375850</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>7613</v>
+        <v>1199</v>
       </c>
       <c r="N22" s="7">
-        <v>6178915</v>
+        <v>624986</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +2014,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>468</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7">
-        <v>521449</v>
+        <v>32092</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="7">
+        <v>87</v>
+      </c>
+      <c r="I23" s="7">
+        <v>46678</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="7">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="7">
-        <v>598</v>
-      </c>
-      <c r="I23" s="7">
-        <v>442981</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1066</v>
-      </c>
       <c r="N23" s="7">
-        <v>964431</v>
+        <v>78769</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2065,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>455</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281227</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>874</v>
+      </c>
+      <c r="I24" s="7">
+        <v>422528</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1329</v>
+      </c>
+      <c r="N24" s="7">
+        <v>703755</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2885</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2936605</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4728</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3233657</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7613</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6170262</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>468</v>
+      </c>
+      <c r="D26" s="7">
+        <v>503251</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
+        <v>598</v>
+      </c>
+      <c r="I26" s="7">
+        <v>401733</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1066</v>
+      </c>
+      <c r="N26" s="7">
+        <v>904984</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3353</v>
       </c>
-      <c r="D24" s="7">
-        <v>3364522</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3439856</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5326</v>
       </c>
-      <c r="I24" s="7">
-        <v>3778824</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3635390</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8679</v>
       </c>
-      <c r="N24" s="7">
-        <v>7143346</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>7075246</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
